--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.82379233333333</v>
+        <v>17.08155333333333</v>
       </c>
       <c r="N2">
-        <v>53.471377</v>
+        <v>51.24466</v>
       </c>
       <c r="O2">
-        <v>0.4233776263711466</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="P2">
-        <v>0.4233776263711467</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="Q2">
-        <v>2.850030335364111</v>
+        <v>2.731346071851111</v>
       </c>
       <c r="R2">
-        <v>25.65027301827701</v>
+        <v>24.58211464666</v>
       </c>
       <c r="S2">
-        <v>0.01121007400597485</v>
+        <v>0.009271281382979482</v>
       </c>
       <c r="T2">
-        <v>0.01121007400597486</v>
+        <v>0.009271281382979482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>31.359219</v>
       </c>
       <c r="O3">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="P3">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="Q3">
         <v>1.671449857057667</v>
@@ -638,10 +638,10 @@
         <v>15.043048713519</v>
       </c>
       <c r="S3">
-        <v>0.006574342863090524</v>
+        <v>0.005673569564116075</v>
       </c>
       <c r="T3">
-        <v>0.006574342863090526</v>
+        <v>0.005673569564116076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.27602</v>
+        <v>8.398122666666666</v>
       </c>
       <c r="N4">
-        <v>12.82806</v>
+        <v>25.194368</v>
       </c>
       <c r="O4">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="P4">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="Q4">
-        <v>0.68373702334</v>
+        <v>1.342862613774222</v>
       </c>
       <c r="R4">
-        <v>6.153633210060001</v>
+        <v>12.085763523968</v>
       </c>
       <c r="S4">
-        <v>0.002689354754284443</v>
+        <v>0.004558212992228537</v>
       </c>
       <c r="T4">
-        <v>0.002689354754284444</v>
+        <v>0.004558212992228537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.015535666666667</v>
+        <v>4.514486333333333</v>
       </c>
       <c r="N5">
-        <v>9.046607</v>
+        <v>13.543459</v>
       </c>
       <c r="O5">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953211</v>
       </c>
       <c r="P5">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953213</v>
       </c>
       <c r="Q5">
-        <v>0.4821851582785556</v>
+        <v>0.7218678695287778</v>
       </c>
       <c r="R5">
-        <v>4.339666424507</v>
+        <v>6.496810825759</v>
       </c>
       <c r="S5">
-        <v>0.001896587289550635</v>
+        <v>0.002450308369454415</v>
       </c>
       <c r="T5">
-        <v>0.001896587289550636</v>
+        <v>0.002450308369454416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.530620666666667</v>
+        <v>8.335727666666667</v>
       </c>
       <c r="N6">
-        <v>19.591862</v>
+        <v>25.007183</v>
       </c>
       <c r="O6">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="P6">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="Q6">
-        <v>1.044248421473556</v>
+        <v>1.332885632475889</v>
       </c>
       <c r="R6">
-        <v>9.398235793262</v>
+        <v>11.995970692283</v>
       </c>
       <c r="S6">
-        <v>0.004107360521776848</v>
+        <v>0.004524347125898796</v>
       </c>
       <c r="T6">
-        <v>0.004107360521776848</v>
+        <v>0.004524347125898797</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.82379233333333</v>
+        <v>17.08155333333333</v>
       </c>
       <c r="N7">
-        <v>53.471377</v>
+        <v>51.24466</v>
       </c>
       <c r="O7">
-        <v>0.4233776263711466</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="P7">
-        <v>0.4233776263711467</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="Q7">
-        <v>104.7887843441013</v>
+        <v>100.4250484427733</v>
       </c>
       <c r="R7">
-        <v>943.0990590969121</v>
+        <v>903.82543598496</v>
       </c>
       <c r="S7">
-        <v>0.4121675523651717</v>
+        <v>0.340882794607307</v>
       </c>
       <c r="T7">
-        <v>0.4121675523651718</v>
+        <v>0.340882794607307</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,10 +936,10 @@
         <v>31.359219</v>
       </c>
       <c r="O8">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="P8">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="Q8">
         <v>61.455205034096</v>
@@ -948,10 +948,10 @@
         <v>553.096845306864</v>
       </c>
       <c r="S8">
-        <v>0.2417228293805374</v>
+        <v>0.2086035541932088</v>
       </c>
       <c r="T8">
-        <v>0.2417228293805374</v>
+        <v>0.2086035541932088</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.27602</v>
+        <v>8.398122666666666</v>
       </c>
       <c r="N9">
-        <v>12.82806</v>
+        <v>25.194368</v>
       </c>
       <c r="O9">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="P9">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="Q9">
-        <v>25.13937153504</v>
+        <v>49.37383967197866</v>
       </c>
       <c r="R9">
-        <v>226.25434381536</v>
+        <v>444.364557047808</v>
       </c>
       <c r="S9">
-        <v>0.09888112834261899</v>
+        <v>0.1675945663841834</v>
       </c>
       <c r="T9">
-        <v>0.09888112834261902</v>
+        <v>0.1675945663841834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.015535666666667</v>
+        <v>4.514486333333333</v>
       </c>
       <c r="N10">
-        <v>9.046607</v>
+        <v>13.543459</v>
       </c>
       <c r="O10">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953211</v>
       </c>
       <c r="P10">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953213</v>
       </c>
       <c r="Q10">
-        <v>17.72879254575467</v>
+        <v>26.54135135558933</v>
       </c>
       <c r="R10">
-        <v>159.559132911792</v>
+        <v>238.872162200304</v>
       </c>
       <c r="S10">
-        <v>0.06973296880683715</v>
+        <v>0.09009196573007769</v>
       </c>
       <c r="T10">
-        <v>0.06973296880683716</v>
+        <v>0.09009196573007772</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.530620666666667</v>
+        <v>8.335727666666667</v>
       </c>
       <c r="N11">
-        <v>19.591862</v>
+        <v>25.007183</v>
       </c>
       <c r="O11">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="P11">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="Q11">
-        <v>38.39451155367467</v>
+        <v>49.00700998293867</v>
       </c>
       <c r="R11">
-        <v>345.550603983072</v>
+        <v>441.063089846448</v>
       </c>
       <c r="S11">
-        <v>0.1510178016701575</v>
+        <v>0.1663493996505458</v>
       </c>
       <c r="T11">
-        <v>0.1510178016701574</v>
+        <v>0.1663493996505458</v>
       </c>
     </row>
   </sheetData>
